--- a/Peaks-dataset-article/redes-ensemble-s/mse_sup/better_results_03.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/mse_sup/better_results_03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>model</t>
   </si>
@@ -70,61 +70,28 @@
     <t>Architecture</t>
   </si>
   <si>
-    <t>model_8_8_19</t>
-  </si>
-  <si>
-    <t>Hidden Size=[40, 39], regularizer=0.5, learning_rate=0.1</t>
-  </si>
-  <si>
-    <t>model_52_9_6</t>
-  </si>
-  <si>
-    <t>Hidden Size=[30, 21], regularizer=0.0, learning_rate=0.1</t>
-  </si>
-  <si>
-    <t>model_38_9_24</t>
-  </si>
-  <si>
-    <t>Hidden Size=[33, 21], regularizer=0.2, learning_rate=0.1</t>
-  </si>
-  <si>
-    <t>model_520_9_12</t>
-  </si>
-  <si>
-    <t>Hidden Size=[26, 21], regularizer=0.0, learning_rate=0.1</t>
-  </si>
-  <si>
-    <t>model_2_9_11</t>
-  </si>
-  <si>
-    <t>Hidden Size=[35, 33], regularizer=0.2, learning_rate=0.1</t>
-  </si>
-  <si>
-    <t>model_44_9_3</t>
-  </si>
-  <si>
-    <t>Hidden Size=[30, 16], regularizer=0.0, learning_rate=0.1</t>
-  </si>
-  <si>
-    <t>model_22_6_12</t>
-  </si>
-  <si>
-    <t>Hidden Size=[30, 16], regularizer=0.2, learning_rate=0.1</t>
-  </si>
-  <si>
-    <t>model_22_9_7</t>
-  </si>
-  <si>
-    <t>Hidden Size=[20, 16], regularizer=0.2, learning_rate=0.1</t>
-  </si>
-  <si>
-    <t>model_220_9_0</t>
-  </si>
-  <si>
-    <t>model_14_9_7</t>
-  </si>
-  <si>
-    <t>Hidden Size=[12, 10], regularizer=0.2, learning_rate=0.1</t>
+    <t>model_18_8_0</t>
+  </si>
+  <si>
+    <t>Hidden Size=[14], regularizer=0.5, learning_rate=0.5</t>
+  </si>
+  <si>
+    <t>model_18_9_8</t>
+  </si>
+  <si>
+    <t>Hidden Size=[14], regularizer=0.01, learning_rate=0.05</t>
+  </si>
+  <si>
+    <t>model_14_7_17</t>
+  </si>
+  <si>
+    <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.06</t>
+  </si>
+  <si>
+    <t>model_2_9_24</t>
+  </si>
+  <si>
+    <t>Hidden Size=[17], regularizer=0.01, learning_rate=0.06</t>
   </si>
 </sst>
 </file>
@@ -132,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,15 +108,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -163,6 +136,13 @@
     </fill>
   </fills>
   <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -185,38 +165,31 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -533,7 +506,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -625,52 +598,52 @@
         <v>18</v>
       </c>
       <c r="C2" s="6">
-        <v>0.9999</v>
+        <v>0.99608559593938</v>
       </c>
       <c r="D2" s="6">
-        <v>0.786</v>
+        <v>0.79623474156116</v>
       </c>
       <c r="E2" s="7">
-        <v>1</v>
+        <v>0.99999999999997</v>
       </c>
       <c r="F2" s="7">
-        <v>1</v>
+        <v>0.993130221321954</v>
       </c>
       <c r="G2" s="7">
-        <v>1</v>
+        <v>0.998537415969981</v>
       </c>
       <c r="H2" s="7">
-        <v>0</v>
+        <v>0.0261756379775401</v>
       </c>
       <c r="I2" s="6">
-        <v>0.303</v>
+        <v>1.36257922143</v>
       </c>
       <c r="J2" s="7">
         <v>0</v>
       </c>
       <c r="K2" s="7">
-        <v>0</v>
+        <v>0.0294853094364128</v>
       </c>
       <c r="L2" s="7">
-        <v>0</v>
+        <v>0.0147426549526495</v>
       </c>
       <c r="M2" s="6">
-        <v>0.028</v>
+        <v>0.281338260480666</v>
       </c>
       <c r="N2" s="6">
-        <v>0.009</v>
+        <v>0.161788868521725</v>
       </c>
       <c r="O2" s="7">
-        <v>1</v>
+        <v>1.0028468393</v>
       </c>
       <c r="P2" s="6">
-        <v>0.009</v>
+        <v>0.168676555603823</v>
       </c>
       <c r="Q2" s="6">
-        <v>3537.033</v>
+        <v>121285.8527</v>
       </c>
       <c r="R2" s="6">
-        <v>5681.035</v>
+        <v>190.765</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>19</v>
@@ -684,52 +657,52 @@
         <v>20</v>
       </c>
       <c r="C3" s="6">
-        <v>0.9996</v>
+        <v>0.997062756406996</v>
       </c>
       <c r="D3" s="6">
-        <v>0.789</v>
+        <v>0.810368617762569</v>
       </c>
       <c r="E3" s="7">
-        <v>1</v>
+        <v>0.985800388941311</v>
       </c>
       <c r="F3" s="6">
-        <v>0.999</v>
+        <v>0.967724751764204</v>
       </c>
       <c r="G3" s="7">
-        <v>1</v>
+        <v>0.98659578125974</v>
       </c>
       <c r="H3" s="6">
-        <v>0.001</v>
+        <v>0.0196413614311794</v>
       </c>
       <c r="I3" s="6">
-        <v>0.299</v>
+        <v>1.26806592619</v>
       </c>
       <c r="J3" s="6">
-        <v>0.001</v>
+        <v>0.0254372355000447</v>
       </c>
       <c r="K3" s="6">
-        <v>0.001</v>
+        <v>0.0482249613072178</v>
       </c>
       <c r="L3" s="6">
-        <v>0.001</v>
+        <v>0.0368311167001221</v>
       </c>
       <c r="M3" s="6">
-        <v>0.032</v>
+        <v>0.576044783609774</v>
       </c>
       <c r="N3" s="6">
-        <v>0.024</v>
+        <v>0.140147641546975</v>
       </c>
       <c r="O3" s="7">
-        <v>1</v>
+        <v>1.002135</v>
       </c>
       <c r="P3" s="6">
-        <v>0.025</v>
+        <v>0.146114016793242</v>
       </c>
       <c r="Q3" s="6">
-        <v>1540.865</v>
+        <v>121860.235318</v>
       </c>
       <c r="R3" s="6">
-        <v>2470.868</v>
+        <v>191.336157</v>
       </c>
       <c r="S3" s="5" t="s">
         <v>21</v>
@@ -743,52 +716,52 @@
         <v>22</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>0.993623055555543</v>
       </c>
       <c r="D4" s="6">
-        <v>0.771</v>
+        <v>0.833045544620372</v>
       </c>
       <c r="E4" s="7">
-        <v>1</v>
+        <v>0.983712626027432</v>
       </c>
       <c r="F4" s="7">
-        <v>1</v>
+        <v>0.992016882916434</v>
       </c>
       <c r="G4" s="7">
-        <v>1</v>
+        <v>0.990819657198617</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>0.0426426568632165</v>
       </c>
       <c r="I4" s="6">
-        <v>0.326</v>
+        <v>1.11642521187</v>
       </c>
       <c r="J4" s="7">
-        <v>0</v>
+        <v>0.0638564593236404</v>
       </c>
       <c r="K4" s="7">
-        <v>0</v>
+        <v>0.185004419765378</v>
       </c>
       <c r="L4" s="7">
-        <v>0</v>
+        <v>0.124430439544509</v>
       </c>
       <c r="M4" s="6">
-        <v>0.007</v>
+        <v>0.249310754991432</v>
       </c>
       <c r="N4" s="6">
-        <v>0.007</v>
+        <v>0.20650098513861</v>
       </c>
       <c r="O4" s="7">
-        <v>1</v>
+        <v>1.00268</v>
       </c>
       <c r="P4" s="6">
-        <v>0.008</v>
+        <v>0.21529215959193</v>
       </c>
       <c r="Q4" s="6">
-        <v>1689.638</v>
+        <v>168309.8004</v>
       </c>
       <c r="R4" s="6">
-        <v>2707.399</v>
+        <v>267.0387422</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>23</v>
@@ -802,409 +775,55 @@
         <v>24</v>
       </c>
       <c r="C5" s="6">
-        <v>0.9998</v>
+        <v>0.997352586610724</v>
       </c>
       <c r="D5" s="6">
-        <v>0.827</v>
+        <v>0.812260022220816</v>
       </c>
       <c r="E5" s="6">
-        <v>0.999</v>
+        <v>0.969160851586525</v>
       </c>
       <c r="F5" s="7">
-        <v>1</v>
+        <v>0.997045583825295</v>
       </c>
       <c r="G5" s="6">
-        <v>0.999</v>
+        <v>0.994053233757108</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>0.0177032655243096</v>
       </c>
       <c r="I5" s="6">
-        <v>0.245</v>
+        <v>1.255418</v>
       </c>
       <c r="J5" s="6">
-        <v>0.001</v>
+        <v>0.0524029361390933</v>
       </c>
       <c r="K5" s="6">
-        <v>0.001</v>
+        <v>0.0409399302768637</v>
       </c>
       <c r="L5" s="6">
-        <v>0.001</v>
+        <v>0.0466714462699971</v>
       </c>
       <c r="M5" s="6">
-        <v>0.021</v>
+        <v>0.16570403648172</v>
       </c>
       <c r="N5" s="6">
-        <v>0.017</v>
+        <v>0.133053618982385</v>
       </c>
       <c r="O5" s="7">
-        <v>1</v>
+        <v>1.00141195</v>
       </c>
       <c r="P5" s="6">
-        <v>0.017</v>
+        <v>0.138717987001426</v>
       </c>
       <c r="Q5" s="6">
-        <v>1350.424</v>
+        <v>146068.0123</v>
       </c>
       <c r="R5" s="6">
-        <v>2163.415</v>
+        <v>230.1704442</v>
       </c>
       <c r="S5" s="5" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.9995</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.785</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0.999</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.999</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.999</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.001</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0.305</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0.001</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0.002</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0.001</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0.035</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0.025</v>
-      </c>
-      <c r="O6" s="7">
-        <v>1</v>
-      </c>
-      <c r="P6" s="6">
-        <v>0.027</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>2668.689</v>
-      </c>
-      <c r="R6" s="6">
-        <v>4286.138</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.9995</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.831</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0.001</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0.24</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="6">
-        <v>0.009</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0.026</v>
-      </c>
-      <c r="O7" s="7">
-        <v>1</v>
-      </c>
-      <c r="P7" s="6">
-        <v>0.027</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>1220.55</v>
-      </c>
-      <c r="R7" s="6">
-        <v>1955.532</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.9995</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.805</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.999</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.998</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.999</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0.001</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0.277</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0.003</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0.001</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0.002</v>
-      </c>
-      <c r="M8" s="6">
-        <v>0.139</v>
-      </c>
-      <c r="N8" s="6">
-        <v>0.027</v>
-      </c>
-      <c r="O8" s="7">
-        <v>1</v>
-      </c>
-      <c r="P8" s="6">
-        <v>0.028</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>1220.442</v>
-      </c>
-      <c r="R8" s="6">
-        <v>1955.424</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.9998</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.854</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0.999</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0.999</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0.208</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0.001</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0.001</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0.001</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0.055</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0.018</v>
-      </c>
-      <c r="O9" s="7">
-        <v>1</v>
-      </c>
-      <c r="P9" s="6">
-        <v>0.019</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>842.086</v>
-      </c>
-      <c r="R9" s="6">
-        <v>1345.481</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.9998</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.825</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0.999</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0.999</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0.248</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0.001</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0.001</v>
-      </c>
-      <c r="M10" s="6">
-        <v>0.013</v>
-      </c>
-      <c r="N10" s="6">
-        <v>0.015</v>
-      </c>
-      <c r="O10" s="7">
-        <v>1</v>
-      </c>
-      <c r="P10" s="6">
-        <v>0.016</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>1222.782</v>
-      </c>
-      <c r="R10" s="6">
-        <v>1957.764</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0.9981</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.773</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0.998</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.999</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.999</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0.003</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0.323</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0.004</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0.002</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0.003</v>
-      </c>
-      <c r="M11" s="6">
-        <v>0.323</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0.052</v>
-      </c>
-      <c r="O11" s="7">
-        <v>1</v>
-      </c>
-      <c r="P11" s="6">
-        <v>0.054</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>365.845</v>
-      </c>
-      <c r="R11" s="6">
-        <v>581.586</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/mse_sup/better_results_03.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/mse_sup/better_results_03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>model</t>
   </si>
@@ -92,6 +92,24 @@
   </si>
   <si>
     <t>Hidden Size=[17], regularizer=0.01, learning_rate=0.06</t>
+  </si>
+  <si>
+    <t>model_9_9_24</t>
+  </si>
+  <si>
+    <t>Hidden Size=[7], regularizer=0.2, learning_rate=0.01</t>
+  </si>
+  <si>
+    <t>model_28_8_5</t>
+  </si>
+  <si>
+    <t>Hidden Size=[11], regularizer=0.05, learning_rate=0.1</t>
+  </si>
+  <si>
+    <t>model_34_6_1</t>
+  </si>
+  <si>
+    <t>Hidden Size=[23], regularizer=0.2, learning_rate=0.1</t>
   </si>
 </sst>
 </file>
@@ -99,7 +117,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,18 +127,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -169,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -186,10 +198,19 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -506,31 +527,31 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -547,13 +568,13 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -767,7 +788,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -790,7 +811,7 @@
         <v>0.994053233757108</v>
       </c>
       <c r="H5" s="7">
-        <v>0.0177032655243096</v>
+        <v>0.01770326552431</v>
       </c>
       <c r="I5" s="6">
         <v>1.255418</v>
@@ -824,6 +845,183 @@
       </c>
       <c r="S5" s="5" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.975468978853985</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.858221994214517</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.932542745108699</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.991061662238563</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.973381760854532</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.16403905135837</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.948070177515215</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.390164618818336</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.1085493224868</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0.249356970652568</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0.782057991653365</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0.405017346984508</v>
+      </c>
+      <c r="O6" s="10">
+        <v>1.117748902</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0.422259773947128</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>61.61530152</v>
+      </c>
+      <c r="R6" s="9">
+        <v>96.96270044</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.971424708177341</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.842264039361339</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.927396764603803</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.891862855241744</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.9117386390577</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.191083107995243</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1.054781095</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.423662927418554</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.579657782400068</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0.501660643321044</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0.489096485279877</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0.437130538849944</v>
+      </c>
+      <c r="O7" s="10">
+        <v>1.032657476</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0.455740090873747</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>93.31009365</v>
+      </c>
+      <c r="R7" s="9">
+        <v>148.1595058</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.976665740122753</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.844300551613387</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.953934836870942</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.973205039084462</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.968950915867986</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.156036303243535</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1.041162928</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0.204898115225918</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.413913290573868</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0.309405702891647</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0.0874514725382748</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0.395014307644084</v>
+      </c>
+      <c r="O8" s="10">
+        <v>1.008116264</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0.411830884512836</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>189.7153332</v>
+      </c>
+      <c r="R8" s="9">
+        <v>303.0707849</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
